--- a/helper_skripts/menu_converter/menu-2024.12.14.xlsx
+++ b/helper_skripts/menu_converter/menu-2024.12.14.xlsx
@@ -217,7 +217,7 @@
     <t>Kafeinsiz Türk Kahvesi</t>
   </si>
   <si>
-    <t>Dibek Turkish Coffee  (Harput Coffee)</t>
+    <t>Dibek Turkish Coffee (Harput Coffee)</t>
   </si>
   <si>
     <t>Dibek Kahvesi  (Harput Kahvesi)</t>
@@ -439,7 +439,7 @@
     <t>Cool Lime</t>
   </si>
   <si>
-    <t>Coca Cola, Zero, Pepsi,Fanta, Sprite</t>
+    <t>Coca Cola, Zero, Pepsi, Fanta, Sprite</t>
   </si>
   <si>
     <t>Coca Kola, Zero, Pepsi, Fanta, Sprite</t>
@@ -532,7 +532,7 @@
     <t>Cheesecake Lotuslu</t>
   </si>
   <si>
-    <t>Cheesecake whit baklava</t>
+    <t>Cheesecake with baklava</t>
   </si>
   <si>
     <t>Baklavalı Cheesecake</t>
@@ -724,7 +724,7 @@
     <t>Kruvasan  Peynir ve Dana Jambonlu</t>
   </si>
   <si>
-    <t>Cheese  Pastry  (piece)</t>
+    <t>Cheese Pastry (piece)</t>
   </si>
   <si>
     <t>Peynirli Börek (adet)</t>
@@ -2092,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="15"/>
@@ -3167,7 +3167,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="8"/>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D93" s="17"/>

--- a/helper_skripts/menu_converter/menu-2024.12.14.xlsx
+++ b/helper_skripts/menu_converter/menu-2024.12.14.xlsx
@@ -457,7 +457,7 @@
     <t>Gazoz Çeşitleri</t>
   </si>
   <si>
-    <t xml:space="preserve">Plain Soda </t>
+    <t>Plain Soda</t>
   </si>
   <si>
     <t>Sade Soda</t>
@@ -3249,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="B97" s="7"/>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="10" t="s">
         <v>146</v>
       </c>
       <c r="D97" s="17"/>
